--- a/Hydrology/Validación Maipo/NSE_v3_4.xlsx
+++ b/Hydrology/Validación Maipo/NSE_v3_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccalvo\Documents\GitHub\WEAP-MODFLOW-personal\Hydrology\Validación Maipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1501D-9169-461E-B89E-816F19AC51DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E11699-3F95-4C76-8109-689B9881BC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44936DEA-F884-4270-BD19-0D66D5FA4EA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44936DEA-F884-4270-BD19-0D66D5FA4EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>F1</t>
   </si>
@@ -203,12 +203,42 @@
   </si>
   <si>
     <t>VF</t>
+  </si>
+  <si>
+    <t>Outlier 3</t>
+  </si>
+  <si>
+    <t>Outlier 5</t>
+  </si>
+  <si>
+    <t>Outlier 15</t>
+  </si>
+  <si>
+    <t>BayesianRidge</t>
+  </si>
+  <si>
+    <t>descending</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>arabic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4201,15 +4232,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70575A4B-5B9E-41A5-9EEE-8A3E9FA0C948}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>19</v>
       </c>
@@ -4219,8 +4250,44 @@
       <c r="J1" t="s">
         <v>55</v>
       </c>
+      <c r="L1">
+        <v>25</v>
+      </c>
+      <c r="M1">
+        <v>30</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4239,8 +4306,41 @@
       <c r="K2" s="1">
         <v>0.90504170682059104</v>
       </c>
+      <c r="L2" s="1">
+        <v>0.929695635838234</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.92958242156468496</v>
+      </c>
+      <c r="O2">
+        <v>0.90201667516599304</v>
+      </c>
+      <c r="P2">
+        <v>0.89186795544099995</v>
+      </c>
+      <c r="Q2">
+        <v>0.88536434071201597</v>
+      </c>
+      <c r="R2">
+        <v>0.90202189002516797</v>
+      </c>
+      <c r="S2">
+        <v>0.90232317734173895</v>
+      </c>
+      <c r="T2">
+        <v>0.90231846139624405</v>
+      </c>
+      <c r="U2">
+        <v>0.90165196424991301</v>
+      </c>
+      <c r="V2">
+        <v>0.90231048250399304</v>
+      </c>
+      <c r="W2">
+        <v>0.90333847660088595</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4259,8 +4359,14 @@
       <c r="K3" s="1">
         <v>0.94398603312276697</v>
       </c>
+      <c r="L3" s="1">
+        <v>0.93486647302863302</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.93740570122244504</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -4279,8 +4385,14 @@
       <c r="K4" s="1">
         <v>0.96798223989185195</v>
       </c>
+      <c r="L4" s="1">
+        <v>0.96542774870186698</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.96380145431171504</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -4299,8 +4411,14 @@
       <c r="K5" s="1">
         <v>0.97589052470228199</v>
       </c>
+      <c r="L5" s="1">
+        <v>0.97622740955151499</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.97592358982849903</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -4319,8 +4437,14 @@
       <c r="K6" s="1">
         <v>0.95657522056014999</v>
       </c>
+      <c r="L6" s="1">
+        <v>0.96835895170545805</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.96721907556961795</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -4339,8 +4463,14 @@
       <c r="K7" s="1">
         <v>0.95014971672108195</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.92704289175846999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.91203085332078504</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -4359,8 +4489,14 @@
       <c r="K8" s="1">
         <v>0.84995683840753</v>
       </c>
+      <c r="L8" s="1">
+        <v>0.82291180698593602</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.79191090720385504</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -4379,8 +4515,14 @@
       <c r="K9" s="1">
         <v>0.97790461682822205</v>
       </c>
+      <c r="L9" s="1">
+        <v>0.97884993213283</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.97827427948569401</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4399,8 +4541,14 @@
       <c r="K10" s="1">
         <v>0.95197014120543999</v>
       </c>
+      <c r="L10" s="1">
+        <v>0.96265536846917998</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.96251782471001102</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -4419,8 +4567,14 @@
       <c r="K11" s="1">
         <v>0.95704147527445105</v>
       </c>
+      <c r="L11" s="1">
+        <v>0.98681432494719001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.98885216350385796</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -4439,8 +4593,14 @@
       <c r="K12" s="1">
         <v>0.97515750880792895</v>
       </c>
+      <c r="L12" s="1">
+        <v>0.98572479983177397</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.986545359170799</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4459,8 +4619,14 @@
       <c r="K13" s="1">
         <v>0.882420983813205</v>
       </c>
+      <c r="L13" s="1">
+        <v>0.87040632459175704</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.88294244248971798</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -4479,8 +4645,14 @@
       <c r="K14" s="1">
         <v>0.76886566140016899</v>
       </c>
+      <c r="L14" s="1">
+        <v>0.80733054505513901</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.80486596783708597</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4499,8 +4671,14 @@
       <c r="K15" s="1">
         <v>0.93809383776414701</v>
       </c>
+      <c r="L15" s="1">
+        <v>0.95136050072102496</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.96040581667745795</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +4697,14 @@
       <c r="K16" s="1">
         <v>0.81416526942749401</v>
       </c>
+      <c r="L16" s="1">
+        <v>0.84153823575889797</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.80607767913471096</v>
+      </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -4539,8 +4723,14 @@
       <c r="K17" s="1">
         <v>0.75680540888377901</v>
       </c>
+      <c r="L17" s="1">
+        <v>0.77899793962952901</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.79621295638435796</v>
+      </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -4558,6 +4748,18 @@
       </c>
       <c r="K18" s="1">
         <v>0.88205211729916499</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.643417734509656</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.679910714854705</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <f>+AVERAGE(L2:L18)</f>
+        <v>0.90186038960100534</v>
       </c>
     </row>
   </sheetData>

--- a/Hydrology/Validación Maipo/NSE_v3_4.xlsx
+++ b/Hydrology/Validación Maipo/NSE_v3_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccalvo\Documents\GitHub\WEAP-MODFLOW-personal\Hydrology\Validación Maipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E11699-3F95-4C76-8109-689B9881BC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370D3EA-D86F-436A-9655-9CB977B135A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{44936DEA-F884-4270-BD19-0D66D5FA4EA8}"/>
   </bookViews>
@@ -237,7 +237,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -271,7 +271,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4232,15 +4232,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70575A4B-5B9E-41A5-9EEE-8A3E9FA0C948}">
-  <dimension ref="B1:W19"/>
+  <dimension ref="B1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>19</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4339,8 +4339,11 @@
       <c r="W2">
         <v>0.90333847660088595</v>
       </c>
+      <c r="X2">
+        <v>0.916911241968002</v>
+      </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>0.93740570122244504</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>0.96380145431171504</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>0.97592358982849903</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>0.96721907556961795</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>0.91203085332078504</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>0.79191090720385504</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>0.97827427948569401</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>0.96251782471001102</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>0.98885216350385796</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>0.986545359170799</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>0.88294244248971798</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>0.80486596783708597</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>0.96040581667745795</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
